--- a/battleworld/Excel/Weapon_武器配置表.xlsx
+++ b/battleworld/Excel/Weapon_武器配置表.xlsx
@@ -27,10 +27,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={E9A57A4E-B9A8-4C96-A8E6-BCB4711542BD}</author>
+    <author>tc={5A80EB27-3E90-429E-A9FF-C7D5462FED11}</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{E9A57A4E-B9A8-4C96-A8E6-BCB4711542BD}">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{5A80EB27-3E90-429E-A9FF-C7D5462FED11}">
       <text>
         <t>[Threaded comment] Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924 Comment: /**=========固定加成值=========[100-200]*/ 
  //移动速度 
@@ -177,7 +177,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -206,6 +209,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -221,7 +231,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -254,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -262,10 +279,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -286,7 +306,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="宋英健" id="{7AF94577-2447-4D9F-99CC-728DE863D775}" userId="S::yingjian.song@appshahe.com::f9a1bd87-94b7-49aa-b11c-048c3b7ed93d" providerId="AD"/>
+  <person displayName="宋英健" id="{29438209-3EC2-48F1-BEBA-F773DCE9F5D4}" userId="S::yingjian.song@appshahe.com::a7ae719e-0a93-4b0c-a266-458a66eec19c" providerId="AD"/>
 </personList>
 </file>
 
@@ -587,7 +607,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment id="{E9A57A4E-B9A8-4C96-A8E6-BCB4711542BD}" ref="E3" dT="2023-12-06T03:42:16" personId="{7AF94577-2447-4D9F-99CC-728DE863D775}" parentId="{}">
+  <threadedComment id="{5A80EB27-3E90-429E-A9FF-C7D5462FED11}" ref="E3" dT="2023-12-06T03:42:16" personId="{29438209-3EC2-48F1-BEBA-F773DCE9F5D4}" parentId="{}">
     <text>/**=========固定加成值=========[100-200]*/ 
  //移动速度 
  speedAdd = 101, 
@@ -738,20 +758,21 @@
     <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="23"/>
     <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="36"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="60"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -797,10 +818,21 @@
       <c r="N1" s="1" t="str">
         <v>string</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
+      <c r="O1" s="1" t="str">
+        <v>int</v>
+      </c>
+      <c r="P1" s="1" t="str">
+        <v>int</v>
+      </c>
+      <c r="Q1" s="1" t="str">
+        <v>float</v>
+      </c>
+      <c r="R1" s="1" t="str">
+        <v>int</v>
+      </c>
+      <c r="S1" s="1" t="str">
+        <v>int[]</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="str">
@@ -845,10 +877,21 @@
       <c r="N2" s="1" t="str">
         <v>action</v>
       </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
+      <c r="O2" s="1" t="str">
+        <v>ultimateSkillId</v>
+      </c>
+      <c r="P2" s="1" t="str">
+        <v>maxAngerValue</v>
+      </c>
+      <c r="Q2" s="1" t="str">
+        <v>cutBackValue</v>
+      </c>
+      <c r="R2" s="1" t="str">
+        <v>motionBtnDataId</v>
+      </c>
+      <c r="S2" s="1" t="str">
+        <v>angerEffectId</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="str">
@@ -895,14 +938,25 @@
       <c r="N3" s="1" t="str">
         <v>武器待机动画</v>
       </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
+      <c r="O3" s="1" t="str">
+        <v>终极绝招id</v>
+      </c>
+      <c r="P3" s="1" t="str">
+        <v>怒气值上限</v>
+      </c>
+      <c r="Q3" s="1" t="str">
+        <v>每0.25秒削减值</v>
+      </c>
+      <c r="R3" s="1" t="str">
+        <v>普通攻击的技能按钮id</v>
+      </c>
+      <c r="S3" s="1" t="str">
+        <v>怒气释放特效</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1"/>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="3" t="str">
         <v>Language</v>
       </c>
       <c r="C4" s="1"/>
@@ -921,6 +975,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1">
@@ -955,10 +1010,21 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
+      <c r="O5" s="4">
+        <v>71</v>
+      </c>
+      <c r="P5" s="1">
+        <v>500</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="R5" s="1">
+        <v>47</v>
+      </c>
+      <c r="S5" s="3">
+        <v>32</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
@@ -967,7 +1033,7 @@
       <c r="B6" s="1" t="str">
         <v>Weapon_Name_2</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="3" t="str">
         <v>近战单手剑</v>
       </c>
       <c r="D6" s="1">
@@ -992,17 +1058,28 @@
       <c r="K6" s="1">
         <v>98203</v>
       </c>
-      <c r="L6" s="2" t="str">
+      <c r="L6" s="3" t="str">
         <v>3B0077C7495F23F6CFEF50B0F9DE51BD</v>
       </c>
       <c r="M6" s="1" t="str">
         <v>94F8EE354F1B98F3B86AB5B9ED256D8E</v>
       </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
+      <c r="O6" s="4">
+        <v>72</v>
+      </c>
+      <c r="P6" s="1">
+        <v>750</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="R6" s="1">
+        <v>48</v>
+      </c>
+      <c r="S6" s="3" t="str">
+        <v>33|34</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
@@ -1011,7 +1088,7 @@
       <c r="B7" s="1" t="str">
         <v>Weapon_Name_3</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" s="3" t="str">
         <v>法杖</v>
       </c>
       <c r="D7" s="1">
@@ -1034,17 +1111,28 @@
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="2" t="str">
+      <c r="L7" s="3" t="str">
         <v>3B0077C7495F23F6CFEF50B0F9DE51BD</v>
       </c>
       <c r="M7" s="1" t="str">
         <v>73516B43428EDA50614F4EA40C4F4C05</v>
       </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
+      <c r="O7" s="4">
+        <v>73</v>
+      </c>
+      <c r="P7" s="1">
+        <v>650</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="R7" s="1">
+        <v>49</v>
+      </c>
+      <c r="S7" s="3" t="str">
+        <v>35|36</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
@@ -1053,7 +1141,7 @@
       <c r="B8" s="1" t="str">
         <v>Weapon_Name_4</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="C8" s="3" t="str">
         <v>双手剑</v>
       </c>
       <c r="D8" s="1">
@@ -1076,19 +1164,30 @@
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="2" t="str">
+      <c r="L8" s="3" t="str">
         <v>3B0077C7495F23F6CFEF50B0F9DE51BD</v>
       </c>
       <c r="M8" s="1" t="str">
         <v>CE073024456D3FE7B9883789DAFA716F</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="2">
         <v>217285</v>
       </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
+      <c r="O8" s="4">
+        <v>74</v>
+      </c>
+      <c r="P8" s="1">
+        <v>800</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>10</v>
+      </c>
+      <c r="R8" s="1">
+        <v>50</v>
+      </c>
+      <c r="S8" s="3" t="str">
+        <v>37|38</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1"/>
@@ -1104,11 +1203,12 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="3"/>
+      <c r="N9" s="2"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1"/>
@@ -1129,6 +1229,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="1"/>
@@ -1149,6 +1250,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1"/>
@@ -1169,6 +1271,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1"/>
@@ -1189,6 +1292,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1"/>
@@ -1209,6 +1313,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1"/>
@@ -1229,6 +1334,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1"/>
@@ -1249,6 +1355,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1"/>
@@ -1269,6 +1376,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1"/>
@@ -1289,6 +1397,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1"/>
@@ -1309,6 +1418,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1"/>
@@ -1329,6 +1439,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1"/>
@@ -1349,6 +1460,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="1"/>
@@ -1369,6 +1481,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" s="1"/>
@@ -1389,6 +1502,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="1"/>
@@ -1409,6 +1523,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="1"/>
@@ -1429,6 +1544,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="1"/>
@@ -1449,6 +1565,7 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="1"/>
@@ -1469,6 +1586,7 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="1"/>
@@ -1489,6 +1607,7 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="1"/>
@@ -1509,6 +1628,7 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" s="1"/>
@@ -1529,6 +1649,7 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
     </row>
     <row r="31">
       <c r="A31" s="1"/>
@@ -1549,6 +1670,7 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
     </row>
     <row r="32">
       <c r="A32" s="1"/>
@@ -1569,6 +1691,7 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
     </row>
     <row r="33">
       <c r="A33" s="1"/>
@@ -1589,6 +1712,7 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
     </row>
     <row r="34">
       <c r="A34" s="1"/>
@@ -1609,6 +1733,7 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
     </row>
     <row r="35">
       <c r="A35" s="1"/>
@@ -1629,6 +1754,7 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
     </row>
     <row r="36">
       <c r="A36" s="1"/>
@@ -1649,6 +1775,7 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
     </row>
     <row r="37">
       <c r="A37" s="1"/>
@@ -1669,6 +1796,7 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
     </row>
     <row r="38">
       <c r="A38" s="1"/>
@@ -1689,6 +1817,7 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
     </row>
     <row r="39">
       <c r="A39" s="1"/>
@@ -1709,6 +1838,7 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
     </row>
     <row r="40">
       <c r="A40" s="1"/>
@@ -1729,6 +1859,7 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
     </row>
     <row r="41">
       <c r="A41" s="1"/>
@@ -1749,6 +1880,7 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
     </row>
     <row r="42">
       <c r="A42" s="1"/>
@@ -1769,6 +1901,7 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
     </row>
     <row r="43">
       <c r="A43" s="1"/>
@@ -1789,6 +1922,7 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
     </row>
     <row r="44">
       <c r="A44" s="1"/>
@@ -1809,6 +1943,7 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
     </row>
     <row r="45">
       <c r="A45" s="1"/>
@@ -1829,6 +1964,7 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
     </row>
     <row r="46">
       <c r="A46" s="1"/>
@@ -1849,6 +1985,7 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
     </row>
     <row r="47">
       <c r="A47" s="1"/>
@@ -1869,6 +2006,7 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
     </row>
     <row r="48">
       <c r="A48" s="1"/>
@@ -1889,6 +2027,7 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
     </row>
     <row r="49">
       <c r="A49" s="1"/>
@@ -1909,6 +2048,7 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
     </row>
     <row r="50">
       <c r="A50" s="1"/>
@@ -1929,6 +2069,7 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
     </row>
     <row r="51">
       <c r="A51" s="1"/>
@@ -1949,6 +2090,7 @@
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
     </row>
     <row r="52">
       <c r="A52" s="1"/>
@@ -1969,6 +2111,7 @@
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
     </row>
     <row r="53">
       <c r="A53" s="1"/>
@@ -1989,6 +2132,7 @@
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
     </row>
     <row r="54">
       <c r="A54" s="1"/>
@@ -2009,6 +2153,7 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
     </row>
     <row r="55">
       <c r="A55" s="1"/>
@@ -2029,6 +2174,7 @@
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
     </row>
     <row r="56">
       <c r="A56" s="1"/>
@@ -2049,6 +2195,7 @@
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
     </row>
     <row r="57">
       <c r="A57" s="1"/>
@@ -2069,6 +2216,7 @@
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
     </row>
     <row r="58">
       <c r="A58" s="1"/>
@@ -2089,6 +2237,7 @@
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
     </row>
     <row r="59">
       <c r="A59" s="1"/>
@@ -2109,6 +2258,7 @@
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
     </row>
     <row r="60">
       <c r="A60" s="1"/>
@@ -2129,6 +2279,7 @@
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
     </row>
     <row r="61">
       <c r="A61" s="1"/>
@@ -2149,6 +2300,7 @@
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
     </row>
     <row r="62">
       <c r="A62" s="1"/>
@@ -2169,6 +2321,7 @@
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
     </row>
     <row r="63">
       <c r="A63" s="1"/>
@@ -2189,6 +2342,7 @@
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
     </row>
     <row r="64">
       <c r="A64" s="1"/>
@@ -2209,6 +2363,7 @@
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
     </row>
     <row r="65">
       <c r="A65" s="1"/>
@@ -2229,6 +2384,7 @@
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
     </row>
     <row r="66">
       <c r="A66" s="1"/>
@@ -2249,6 +2405,7 @@
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
     </row>
     <row r="67">
       <c r="A67" s="1"/>
@@ -2269,6 +2426,7 @@
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
     </row>
     <row r="68">
       <c r="A68" s="1"/>
@@ -2289,6 +2447,7 @@
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
     </row>
     <row r="69">
       <c r="A69" s="1"/>
@@ -2309,6 +2468,7 @@
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
     </row>
     <row r="70">
       <c r="A70" s="1"/>
@@ -2329,6 +2489,7 @@
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
     </row>
     <row r="71">
       <c r="A71" s="1"/>
@@ -2349,6 +2510,7 @@
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
     </row>
     <row r="72">
       <c r="A72" s="1"/>
@@ -2369,6 +2531,7 @@
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
     </row>
     <row r="73">
       <c r="A73" s="1"/>
@@ -2389,6 +2552,7 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
     </row>
     <row r="74">
       <c r="A74" s="1"/>
@@ -2409,6 +2573,7 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
     </row>
     <row r="75">
       <c r="A75" s="1"/>
@@ -2429,6 +2594,7 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
     </row>
     <row r="76">
       <c r="A76" s="1"/>
@@ -2449,6 +2615,7 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
     </row>
     <row r="77">
       <c r="A77" s="1"/>
@@ -2469,6 +2636,7 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
     </row>
     <row r="78">
       <c r="A78" s="1"/>
@@ -2489,6 +2657,7 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
     </row>
     <row r="79">
       <c r="A79" s="1"/>
@@ -2509,6 +2678,7 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
       <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
     </row>
     <row r="80">
       <c r="A80" s="1"/>
@@ -2529,6 +2699,7 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
     </row>
     <row r="81">
       <c r="A81" s="1"/>
@@ -2549,6 +2720,7 @@
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
     </row>
     <row r="82">
       <c r="A82" s="1"/>
@@ -2569,6 +2741,7 @@
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
     </row>
     <row r="83">
       <c r="A83" s="1"/>
@@ -2589,6 +2762,7 @@
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
     </row>
     <row r="84">
       <c r="A84" s="1"/>
@@ -2609,6 +2783,7 @@
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
     </row>
     <row r="85">
       <c r="A85" s="1"/>
@@ -2629,6 +2804,7 @@
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
     </row>
     <row r="86">
       <c r="A86" s="1"/>
@@ -2649,6 +2825,7 @@
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
     </row>
     <row r="87">
       <c r="A87" s="1"/>
@@ -2669,6 +2846,7 @@
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
     </row>
     <row r="88">
       <c r="A88" s="1"/>
@@ -2689,6 +2867,7 @@
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
     </row>
     <row r="89">
       <c r="A89" s="1"/>
@@ -2709,6 +2888,7 @@
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
     </row>
     <row r="90">
       <c r="A90" s="1"/>
@@ -2729,6 +2909,7 @@
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
     </row>
     <row r="91">
       <c r="A91" s="1"/>
@@ -2749,6 +2930,7 @@
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
     </row>
     <row r="92">
       <c r="A92" s="1"/>
@@ -2769,6 +2951,7 @@
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
       <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
     </row>
     <row r="93">
       <c r="A93" s="1"/>
@@ -2789,6 +2972,7 @@
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
       <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
     </row>
     <row r="94">
       <c r="A94" s="1"/>
@@ -2809,6 +2993,7 @@
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
     </row>
     <row r="95">
       <c r="A95" s="1"/>
@@ -2829,6 +3014,7 @@
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
     </row>
     <row r="96">
       <c r="A96" s="1"/>
@@ -2849,6 +3035,7 @@
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
     </row>
     <row r="97">
       <c r="A97" s="1"/>
@@ -2869,6 +3056,7 @@
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
     </row>
     <row r="98">
       <c r="A98" s="1"/>
@@ -2889,6 +3077,7 @@
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
     </row>
     <row r="99">
       <c r="A99" s="1"/>
@@ -2909,6 +3098,7 @@
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
     </row>
     <row r="100">
       <c r="A100" s="1"/>
@@ -2929,6 +3119,7 @@
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
     </row>
     <row r="101">
       <c r="A101" s="1"/>
@@ -2949,6 +3140,7 @@
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
     </row>
     <row r="102">
       <c r="A102" s="1"/>
@@ -2969,6 +3161,7 @@
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
     </row>
     <row r="103">
       <c r="A103" s="1"/>
@@ -2989,6 +3182,7 @@
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
     </row>
     <row r="104">
       <c r="A104" s="1"/>
@@ -3009,6 +3203,7 @@
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
     </row>
     <row r="105">
       <c r="A105" s="1"/>
@@ -3029,6 +3224,7 @@
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
       <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
     </row>
     <row r="106">
       <c r="A106" s="1"/>
@@ -3049,6 +3245,7 @@
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
       <c r="R106" s="1"/>
+      <c r="S106" s="1"/>
     </row>
     <row r="107">
       <c r="A107" s="1"/>
@@ -3069,6 +3266,7 @@
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
+      <c r="S107" s="1"/>
     </row>
     <row r="108">
       <c r="A108" s="1"/>
@@ -3089,6 +3287,7 @@
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
       <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
     </row>
     <row r="109">
       <c r="A109" s="1"/>
@@ -3109,6 +3308,7 @@
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
       <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
     </row>
     <row r="110">
       <c r="A110" s="1"/>
@@ -3129,6 +3329,7 @@
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
       <c r="R110" s="1"/>
+      <c r="S110" s="1"/>
     </row>
     <row r="111">
       <c r="A111" s="1"/>
@@ -3149,6 +3350,7 @@
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
       <c r="R111" s="1"/>
+      <c r="S111" s="1"/>
     </row>
     <row r="112">
       <c r="A112" s="1"/>
@@ -3169,6 +3371,7 @@
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
+      <c r="S112" s="1"/>
     </row>
     <row r="113">
       <c r="A113" s="1"/>
@@ -3189,6 +3392,7 @@
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
       <c r="R113" s="1"/>
+      <c r="S113" s="1"/>
     </row>
     <row r="114">
       <c r="A114" s="1"/>
@@ -3209,6 +3413,7 @@
       <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
       <c r="R114" s="1"/>
+      <c r="S114" s="1"/>
     </row>
     <row r="115">
       <c r="A115" s="1"/>
@@ -3229,6 +3434,7 @@
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
+      <c r="S115" s="1"/>
     </row>
     <row r="116">
       <c r="A116" s="1"/>
@@ -3249,6 +3455,7 @@
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
+      <c r="S116" s="1"/>
     </row>
     <row r="117">
       <c r="A117" s="1"/>
@@ -3269,6 +3476,7 @@
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
       <c r="R117" s="1"/>
+      <c r="S117" s="1"/>
     </row>
     <row r="118">
       <c r="A118" s="1"/>
@@ -3289,6 +3497,7 @@
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
       <c r="R118" s="1"/>
+      <c r="S118" s="1"/>
     </row>
     <row r="119">
       <c r="A119" s="1"/>
@@ -3309,6 +3518,7 @@
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
       <c r="R119" s="1"/>
+      <c r="S119" s="1"/>
     </row>
     <row r="120">
       <c r="A120" s="1"/>
@@ -3329,6 +3539,7 @@
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
       <c r="R120" s="1"/>
+      <c r="S120" s="1"/>
     </row>
     <row r="121">
       <c r="A121" s="1"/>
@@ -3349,6 +3560,7 @@
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
       <c r="R121" s="1"/>
+      <c r="S121" s="1"/>
     </row>
     <row r="122">
       <c r="A122" s="1"/>
@@ -3369,6 +3581,7 @@
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
       <c r="R122" s="1"/>
+      <c r="S122" s="1"/>
     </row>
     <row r="123">
       <c r="A123" s="1"/>
@@ -3389,6 +3602,7 @@
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
       <c r="R123" s="1"/>
+      <c r="S123" s="1"/>
     </row>
     <row r="124">
       <c r="A124" s="1"/>
@@ -3409,6 +3623,7 @@
       <c r="P124" s="1"/>
       <c r="Q124" s="1"/>
       <c r="R124" s="1"/>
+      <c r="S124" s="1"/>
     </row>
     <row r="125">
       <c r="A125" s="1"/>
@@ -3429,6 +3644,7 @@
       <c r="P125" s="1"/>
       <c r="Q125" s="1"/>
       <c r="R125" s="1"/>
+      <c r="S125" s="1"/>
     </row>
     <row r="126">
       <c r="A126" s="1"/>
@@ -3449,6 +3665,7 @@
       <c r="P126" s="1"/>
       <c r="Q126" s="1"/>
       <c r="R126" s="1"/>
+      <c r="S126" s="1"/>
     </row>
     <row r="127">
       <c r="A127" s="1"/>
@@ -3469,6 +3686,7 @@
       <c r="P127" s="1"/>
       <c r="Q127" s="1"/>
       <c r="R127" s="1"/>
+      <c r="S127" s="1"/>
     </row>
     <row r="128">
       <c r="A128" s="1"/>
@@ -3489,6 +3707,7 @@
       <c r="P128" s="1"/>
       <c r="Q128" s="1"/>
       <c r="R128" s="1"/>
+      <c r="S128" s="1"/>
     </row>
     <row r="129">
       <c r="A129" s="1"/>
@@ -3509,6 +3728,7 @@
       <c r="P129" s="1"/>
       <c r="Q129" s="1"/>
       <c r="R129" s="1"/>
+      <c r="S129" s="1"/>
     </row>
     <row r="130">
       <c r="A130" s="1"/>
@@ -3529,6 +3749,7 @@
       <c r="P130" s="1"/>
       <c r="Q130" s="1"/>
       <c r="R130" s="1"/>
+      <c r="S130" s="1"/>
     </row>
     <row r="131">
       <c r="A131" s="1"/>
@@ -3549,6 +3770,7 @@
       <c r="P131" s="1"/>
       <c r="Q131" s="1"/>
       <c r="R131" s="1"/>
+      <c r="S131" s="1"/>
     </row>
     <row r="132">
       <c r="A132" s="1"/>
@@ -3569,6 +3791,7 @@
       <c r="P132" s="1"/>
       <c r="Q132" s="1"/>
       <c r="R132" s="1"/>
+      <c r="S132" s="1"/>
     </row>
     <row r="133">
       <c r="A133" s="1"/>
@@ -3589,6 +3812,7 @@
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
       <c r="R133" s="1"/>
+      <c r="S133" s="1"/>
     </row>
     <row r="134">
       <c r="A134" s="1"/>
@@ -3609,6 +3833,7 @@
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
       <c r="R134" s="1"/>
+      <c r="S134" s="1"/>
     </row>
     <row r="135">
       <c r="A135" s="1"/>
@@ -3629,6 +3854,7 @@
       <c r="P135" s="1"/>
       <c r="Q135" s="1"/>
       <c r="R135" s="1"/>
+      <c r="S135" s="1"/>
     </row>
     <row r="136">
       <c r="A136" s="1"/>
@@ -3649,6 +3875,7 @@
       <c r="P136" s="1"/>
       <c r="Q136" s="1"/>
       <c r="R136" s="1"/>
+      <c r="S136" s="1"/>
     </row>
     <row r="137">
       <c r="A137" s="1"/>
@@ -3669,6 +3896,7 @@
       <c r="P137" s="1"/>
       <c r="Q137" s="1"/>
       <c r="R137" s="1"/>
+      <c r="S137" s="1"/>
     </row>
     <row r="138">
       <c r="A138" s="1"/>
@@ -3689,6 +3917,7 @@
       <c r="P138" s="1"/>
       <c r="Q138" s="1"/>
       <c r="R138" s="1"/>
+      <c r="S138" s="1"/>
     </row>
     <row r="139">
       <c r="A139" s="1"/>
@@ -3709,6 +3938,7 @@
       <c r="P139" s="1"/>
       <c r="Q139" s="1"/>
       <c r="R139" s="1"/>
+      <c r="S139" s="1"/>
     </row>
     <row r="140">
       <c r="A140" s="1"/>
@@ -3729,6 +3959,7 @@
       <c r="P140" s="1"/>
       <c r="Q140" s="1"/>
       <c r="R140" s="1"/>
+      <c r="S140" s="1"/>
     </row>
     <row r="141">
       <c r="A141" s="1"/>
@@ -3749,6 +3980,7 @@
       <c r="P141" s="1"/>
       <c r="Q141" s="1"/>
       <c r="R141" s="1"/>
+      <c r="S141" s="1"/>
     </row>
     <row r="142">
       <c r="A142" s="1"/>
@@ -3769,6 +4001,7 @@
       <c r="P142" s="1"/>
       <c r="Q142" s="1"/>
       <c r="R142" s="1"/>
+      <c r="S142" s="1"/>
     </row>
     <row r="143">
       <c r="A143" s="1"/>
@@ -3789,6 +4022,7 @@
       <c r="P143" s="1"/>
       <c r="Q143" s="1"/>
       <c r="R143" s="1"/>
+      <c r="S143" s="1"/>
     </row>
     <row r="144">
       <c r="A144" s="1"/>
@@ -3809,6 +4043,7 @@
       <c r="P144" s="1"/>
       <c r="Q144" s="1"/>
       <c r="R144" s="1"/>
+      <c r="S144" s="1"/>
     </row>
     <row r="145">
       <c r="A145" s="1"/>
@@ -3829,6 +4064,7 @@
       <c r="P145" s="1"/>
       <c r="Q145" s="1"/>
       <c r="R145" s="1"/>
+      <c r="S145" s="1"/>
     </row>
     <row r="146">
       <c r="A146" s="1"/>
@@ -3849,6 +4085,7 @@
       <c r="P146" s="1"/>
       <c r="Q146" s="1"/>
       <c r="R146" s="1"/>
+      <c r="S146" s="1"/>
     </row>
     <row r="147">
       <c r="A147" s="1"/>
@@ -3869,6 +4106,7 @@
       <c r="P147" s="1"/>
       <c r="Q147" s="1"/>
       <c r="R147" s="1"/>
+      <c r="S147" s="1"/>
     </row>
     <row r="148">
       <c r="A148" s="1"/>
@@ -3889,6 +4127,7 @@
       <c r="P148" s="1"/>
       <c r="Q148" s="1"/>
       <c r="R148" s="1"/>
+      <c r="S148" s="1"/>
     </row>
     <row r="149">
       <c r="A149" s="1"/>
@@ -3909,6 +4148,7 @@
       <c r="P149" s="1"/>
       <c r="Q149" s="1"/>
       <c r="R149" s="1"/>
+      <c r="S149" s="1"/>
     </row>
     <row r="150">
       <c r="A150" s="1"/>
@@ -3929,6 +4169,7 @@
       <c r="P150" s="1"/>
       <c r="Q150" s="1"/>
       <c r="R150" s="1"/>
+      <c r="S150" s="1"/>
     </row>
     <row r="151">
       <c r="A151" s="1"/>
@@ -3949,6 +4190,7 @@
       <c r="P151" s="1"/>
       <c r="Q151" s="1"/>
       <c r="R151" s="1"/>
+      <c r="S151" s="1"/>
     </row>
     <row r="152">
       <c r="A152" s="1"/>
@@ -3969,6 +4211,7 @@
       <c r="P152" s="1"/>
       <c r="Q152" s="1"/>
       <c r="R152" s="1"/>
+      <c r="S152" s="1"/>
     </row>
     <row r="153">
       <c r="A153" s="1"/>
@@ -3989,6 +4232,7 @@
       <c r="P153" s="1"/>
       <c r="Q153" s="1"/>
       <c r="R153" s="1"/>
+      <c r="S153" s="1"/>
     </row>
     <row r="154">
       <c r="A154" s="1"/>
@@ -4009,6 +4253,7 @@
       <c r="P154" s="1"/>
       <c r="Q154" s="1"/>
       <c r="R154" s="1"/>
+      <c r="S154" s="1"/>
     </row>
     <row r="155">
       <c r="A155" s="1"/>
@@ -4029,6 +4274,7 @@
       <c r="P155" s="1"/>
       <c r="Q155" s="1"/>
       <c r="R155" s="1"/>
+      <c r="S155" s="1"/>
     </row>
     <row r="156">
       <c r="A156" s="1"/>
@@ -4049,6 +4295,7 @@
       <c r="P156" s="1"/>
       <c r="Q156" s="1"/>
       <c r="R156" s="1"/>
+      <c r="S156" s="1"/>
     </row>
     <row r="157">
       <c r="A157" s="1"/>
@@ -4069,6 +4316,7 @@
       <c r="P157" s="1"/>
       <c r="Q157" s="1"/>
       <c r="R157" s="1"/>
+      <c r="S157" s="1"/>
     </row>
     <row r="158">
       <c r="A158" s="1"/>
@@ -4089,6 +4337,7 @@
       <c r="P158" s="1"/>
       <c r="Q158" s="1"/>
       <c r="R158" s="1"/>
+      <c r="S158" s="1"/>
     </row>
     <row r="159">
       <c r="A159" s="1"/>
@@ -4109,6 +4358,7 @@
       <c r="P159" s="1"/>
       <c r="Q159" s="1"/>
       <c r="R159" s="1"/>
+      <c r="S159" s="1"/>
     </row>
     <row r="160">
       <c r="A160" s="1"/>
@@ -4129,6 +4379,7 @@
       <c r="P160" s="1"/>
       <c r="Q160" s="1"/>
       <c r="R160" s="1"/>
+      <c r="S160" s="1"/>
     </row>
     <row r="161">
       <c r="A161" s="1"/>
@@ -4149,6 +4400,7 @@
       <c r="P161" s="1"/>
       <c r="Q161" s="1"/>
       <c r="R161" s="1"/>
+      <c r="S161" s="1"/>
     </row>
     <row r="162">
       <c r="A162" s="1"/>
@@ -4169,6 +4421,7 @@
       <c r="P162" s="1"/>
       <c r="Q162" s="1"/>
       <c r="R162" s="1"/>
+      <c r="S162" s="1"/>
     </row>
     <row r="163">
       <c r="A163" s="1"/>
@@ -4189,6 +4442,7 @@
       <c r="P163" s="1"/>
       <c r="Q163" s="1"/>
       <c r="R163" s="1"/>
+      <c r="S163" s="1"/>
     </row>
     <row r="164">
       <c r="A164" s="1"/>
@@ -4209,6 +4463,7 @@
       <c r="P164" s="1"/>
       <c r="Q164" s="1"/>
       <c r="R164" s="1"/>
+      <c r="S164" s="1"/>
     </row>
     <row r="165">
       <c r="A165" s="1"/>
@@ -4229,6 +4484,7 @@
       <c r="P165" s="1"/>
       <c r="Q165" s="1"/>
       <c r="R165" s="1"/>
+      <c r="S165" s="1"/>
     </row>
     <row r="166">
       <c r="A166" s="1"/>
@@ -4249,6 +4505,7 @@
       <c r="P166" s="1"/>
       <c r="Q166" s="1"/>
       <c r="R166" s="1"/>
+      <c r="S166" s="1"/>
     </row>
     <row r="167">
       <c r="A167" s="1"/>
@@ -4269,6 +4526,7 @@
       <c r="P167" s="1"/>
       <c r="Q167" s="1"/>
       <c r="R167" s="1"/>
+      <c r="S167" s="1"/>
     </row>
     <row r="168">
       <c r="A168" s="1"/>
@@ -4289,6 +4547,7 @@
       <c r="P168" s="1"/>
       <c r="Q168" s="1"/>
       <c r="R168" s="1"/>
+      <c r="S168" s="1"/>
     </row>
     <row r="169">
       <c r="A169" s="1"/>
@@ -4309,6 +4568,7 @@
       <c r="P169" s="1"/>
       <c r="Q169" s="1"/>
       <c r="R169" s="1"/>
+      <c r="S169" s="1"/>
     </row>
     <row r="170">
       <c r="A170" s="1"/>
@@ -4329,6 +4589,7 @@
       <c r="P170" s="1"/>
       <c r="Q170" s="1"/>
       <c r="R170" s="1"/>
+      <c r="S170" s="1"/>
     </row>
     <row r="171">
       <c r="A171" s="1"/>
@@ -4349,6 +4610,7 @@
       <c r="P171" s="1"/>
       <c r="Q171" s="1"/>
       <c r="R171" s="1"/>
+      <c r="S171" s="1"/>
     </row>
     <row r="172">
       <c r="A172" s="1"/>
@@ -4369,6 +4631,7 @@
       <c r="P172" s="1"/>
       <c r="Q172" s="1"/>
       <c r="R172" s="1"/>
+      <c r="S172" s="1"/>
     </row>
     <row r="173">
       <c r="A173" s="1"/>
@@ -4389,6 +4652,7 @@
       <c r="P173" s="1"/>
       <c r="Q173" s="1"/>
       <c r="R173" s="1"/>
+      <c r="S173" s="1"/>
     </row>
     <row r="174">
       <c r="A174" s="1"/>
@@ -4409,6 +4673,7 @@
       <c r="P174" s="1"/>
       <c r="Q174" s="1"/>
       <c r="R174" s="1"/>
+      <c r="S174" s="1"/>
     </row>
     <row r="175">
       <c r="A175" s="1"/>
@@ -4429,6 +4694,7 @@
       <c r="P175" s="1"/>
       <c r="Q175" s="1"/>
       <c r="R175" s="1"/>
+      <c r="S175" s="1"/>
     </row>
     <row r="176">
       <c r="A176" s="1"/>
@@ -4449,6 +4715,7 @@
       <c r="P176" s="1"/>
       <c r="Q176" s="1"/>
       <c r="R176" s="1"/>
+      <c r="S176" s="1"/>
     </row>
     <row r="177">
       <c r="A177" s="1"/>
@@ -4469,6 +4736,7 @@
       <c r="P177" s="1"/>
       <c r="Q177" s="1"/>
       <c r="R177" s="1"/>
+      <c r="S177" s="1"/>
     </row>
     <row r="178">
       <c r="A178" s="1"/>
@@ -4489,6 +4757,7 @@
       <c r="P178" s="1"/>
       <c r="Q178" s="1"/>
       <c r="R178" s="1"/>
+      <c r="S178" s="1"/>
     </row>
     <row r="179">
       <c r="A179" s="1"/>
@@ -4509,6 +4778,7 @@
       <c r="P179" s="1"/>
       <c r="Q179" s="1"/>
       <c r="R179" s="1"/>
+      <c r="S179" s="1"/>
     </row>
     <row r="180">
       <c r="A180" s="1"/>
@@ -4529,6 +4799,7 @@
       <c r="P180" s="1"/>
       <c r="Q180" s="1"/>
       <c r="R180" s="1"/>
+      <c r="S180" s="1"/>
     </row>
     <row r="181">
       <c r="A181" s="1"/>
@@ -4549,6 +4820,7 @@
       <c r="P181" s="1"/>
       <c r="Q181" s="1"/>
       <c r="R181" s="1"/>
+      <c r="S181" s="1"/>
     </row>
     <row r="182">
       <c r="A182" s="1"/>
@@ -4569,6 +4841,7 @@
       <c r="P182" s="1"/>
       <c r="Q182" s="1"/>
       <c r="R182" s="1"/>
+      <c r="S182" s="1"/>
     </row>
     <row r="183">
       <c r="A183" s="1"/>
@@ -4589,6 +4862,7 @@
       <c r="P183" s="1"/>
       <c r="Q183" s="1"/>
       <c r="R183" s="1"/>
+      <c r="S183" s="1"/>
     </row>
     <row r="184">
       <c r="A184" s="1"/>
@@ -4609,6 +4883,7 @@
       <c r="P184" s="1"/>
       <c r="Q184" s="1"/>
       <c r="R184" s="1"/>
+      <c r="S184" s="1"/>
     </row>
     <row r="185">
       <c r="A185" s="1"/>
@@ -4629,6 +4904,7 @@
       <c r="P185" s="1"/>
       <c r="Q185" s="1"/>
       <c r="R185" s="1"/>
+      <c r="S185" s="1"/>
     </row>
     <row r="186">
       <c r="A186" s="1"/>
@@ -4649,6 +4925,7 @@
       <c r="P186" s="1"/>
       <c r="Q186" s="1"/>
       <c r="R186" s="1"/>
+      <c r="S186" s="1"/>
     </row>
     <row r="187">
       <c r="A187" s="1"/>
@@ -4669,6 +4946,7 @@
       <c r="P187" s="1"/>
       <c r="Q187" s="1"/>
       <c r="R187" s="1"/>
+      <c r="S187" s="1"/>
     </row>
     <row r="188">
       <c r="A188" s="1"/>
@@ -4689,6 +4967,7 @@
       <c r="P188" s="1"/>
       <c r="Q188" s="1"/>
       <c r="R188" s="1"/>
+      <c r="S188" s="1"/>
     </row>
     <row r="189">
       <c r="A189" s="1"/>
@@ -4709,6 +4988,7 @@
       <c r="P189" s="1"/>
       <c r="Q189" s="1"/>
       <c r="R189" s="1"/>
+      <c r="S189" s="1"/>
     </row>
     <row r="190">
       <c r="A190" s="1"/>
@@ -4729,6 +5009,7 @@
       <c r="P190" s="1"/>
       <c r="Q190" s="1"/>
       <c r="R190" s="1"/>
+      <c r="S190" s="1"/>
     </row>
     <row r="191">
       <c r="A191" s="1"/>
@@ -4749,6 +5030,7 @@
       <c r="P191" s="1"/>
       <c r="Q191" s="1"/>
       <c r="R191" s="1"/>
+      <c r="S191" s="1"/>
     </row>
     <row r="192">
       <c r="A192" s="1"/>
@@ -4769,6 +5051,7 @@
       <c r="P192" s="1"/>
       <c r="Q192" s="1"/>
       <c r="R192" s="1"/>
+      <c r="S192" s="1"/>
     </row>
     <row r="193">
       <c r="A193" s="1"/>
@@ -4789,6 +5072,7 @@
       <c r="P193" s="1"/>
       <c r="Q193" s="1"/>
       <c r="R193" s="1"/>
+      <c r="S193" s="1"/>
     </row>
     <row r="194">
       <c r="A194" s="1"/>
@@ -4809,6 +5093,7 @@
       <c r="P194" s="1"/>
       <c r="Q194" s="1"/>
       <c r="R194" s="1"/>
+      <c r="S194" s="1"/>
     </row>
     <row r="195">
       <c r="A195" s="1"/>
@@ -4829,6 +5114,7 @@
       <c r="P195" s="1"/>
       <c r="Q195" s="1"/>
       <c r="R195" s="1"/>
+      <c r="S195" s="1"/>
     </row>
     <row r="196">
       <c r="A196" s="1"/>
@@ -4849,6 +5135,7 @@
       <c r="P196" s="1"/>
       <c r="Q196" s="1"/>
       <c r="R196" s="1"/>
+      <c r="S196" s="1"/>
     </row>
     <row r="197">
       <c r="A197" s="1"/>
@@ -4869,6 +5156,7 @@
       <c r="P197" s="1"/>
       <c r="Q197" s="1"/>
       <c r="R197" s="1"/>
+      <c r="S197" s="1"/>
     </row>
     <row r="198">
       <c r="A198" s="1"/>
@@ -4889,6 +5177,7 @@
       <c r="P198" s="1"/>
       <c r="Q198" s="1"/>
       <c r="R198" s="1"/>
+      <c r="S198" s="1"/>
     </row>
     <row r="199">
       <c r="A199" s="1"/>
@@ -4909,6 +5198,7 @@
       <c r="P199" s="1"/>
       <c r="Q199" s="1"/>
       <c r="R199" s="1"/>
+      <c r="S199" s="1"/>
     </row>
     <row r="200">
       <c r="A200" s="1"/>
@@ -4929,6 +5219,7 @@
       <c r="P200" s="1"/>
       <c r="Q200" s="1"/>
       <c r="R200" s="1"/>
+      <c r="S200" s="1"/>
     </row>
     <row r="201">
       <c r="A201" s="1"/>
@@ -4949,6 +5240,7 @@
       <c r="P201" s="1"/>
       <c r="Q201" s="1"/>
       <c r="R201" s="1"/>
+      <c r="S201" s="1"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
